--- a/Резы/Респа для ОЕ-81б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-81б на 2019 год.xlsx
@@ -1179,7 +1179,8 @@
       <c r="H17" s="12" t="n"/>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>АКТ_зал
+329</t>
         </is>
       </c>
       <c r="J17" s="10" t="inlineStr">
@@ -1937,7 +1938,7 @@
     <col width="45.95" customWidth="1" min="6" max="6"/>
     <col width="23.5" customWidth="1" min="7" max="7"/>
     <col width="23.5" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -2050,7 +2051,11 @@
       </c>
       <c r="G3" s="5" t="n"/>
       <c r="H3" s="6" t="n"/>
-      <c r="I3" s="8" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>III, 208</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Тутынина О.И.</t>
@@ -2444,7 +2449,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2463,7 +2468,6 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
@@ -2584,10 +2588,8 @@
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="16" t="n"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
+      <c r="H3" s="3" t="n">
+        <v>208</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
@@ -2923,7 +2925,7 @@
         </is>
       </c>
       <c r="H15" s="10" t="n">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>

--- a/Резы/Респа для ОЕ-81б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-81б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,66 +114,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -222,10 +222,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -616,7 +616,7 @@
     <col width="41.6" customWidth="1" min="7" max="7"/>
     <col width="92.34999999999999" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1179,13 +1179,13 @@
       <c r="H17" s="12" t="n"/>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 329</t>
         </is>
       </c>
       <c r="J17" s="10" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
+          <t>Мерзоцид Г.Ч.
 Кунавина Н.Е.</t>
         </is>
       </c>
@@ -1259,39 +1259,115 @@
       </c>
     </row>
     <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="10" t="n">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Физика: ПР (общ)</t>
         </is>
       </c>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="13" t="inlineStr">
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ПР (общ)</t>
         </is>
       </c>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="10" t="n">
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="3" t="n">
         <v>403</v>
       </c>
-      <c r="J20" s="10" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>Ильиных Н.И.</t>
         </is>
       </c>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="10" t="n">
+        <v>317</v>
+      </c>
+      <c r="J21" s="10" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D22" s="17" t="n"/>
+      <c r="I22" s="16" t="n"/>
+      <c r="J22" s="16" t="n"/>
+    </row>
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J23" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="D4:G4"/>
@@ -1315,8 +1391,12 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A6:A9"/>
@@ -1333,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1811,7 +1891,7 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D15" s="16" t="n"/>
+      <c r="D15" s="17" t="n"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Физика: ЛБ (общ)</t>
@@ -1838,7 +1918,7 @@
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D16" s="16" t="n"/>
+      <c r="D16" s="17" t="n"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
@@ -1858,34 +1938,108 @@
       </c>
     </row>
     <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D17" s="11" t="n"/>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ПР (общ)</t>
         </is>
       </c>
-      <c r="F17" s="15" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="10" t="n">
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="3" t="n">
         <v>403</v>
       </c>
-      <c r="I17" s="10" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>Ильиных Н.И.</t>
         </is>
       </c>
     </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="10" t="n">
+        <v>317</v>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D19" s="17" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="26">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1902,8 +2056,12 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A5:A8"/>
@@ -1919,7 +2077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2096,31 +2254,31 @@
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n"/>
-      <c r="I5" s="17" t="n"/>
-      <c r="J5" s="17" t="n"/>
+      <c r="D5" s="17" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
     </row>
     <row r="6" ht="34" customHeight="1">
       <c r="A6" s="7" t="n"/>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="16" t="n"/>
-      <c r="I6" s="17" t="n"/>
-      <c r="J6" s="17" t="n"/>
+      <c r="D6" s="17" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="16" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="7" t="n"/>
@@ -2202,7 +2360,7 @@
       <c r="E9" s="5" t="n"/>
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="6" t="n"/>
-      <c r="H9" s="16" t="n"/>
+      <c r="H9" s="17" t="n"/>
       <c r="I9" s="3" t="inlineStr">
         <is>
           <t>III</t>
@@ -2232,7 +2390,7 @@
       <c r="E10" s="5" t="n"/>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="6" t="n"/>
-      <c r="H10" s="16" t="n"/>
+      <c r="H10" s="17" t="n"/>
       <c r="I10" s="3" t="n">
         <v>303</v>
       </c>
@@ -2380,7 +2538,7 @@
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="6" t="n"/>
-      <c r="H15" s="16" t="n"/>
+      <c r="H15" s="17" t="n"/>
       <c r="I15" s="3" t="n">
         <v>412</v>
       </c>
@@ -2408,7 +2566,7 @@
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="6" t="n"/>
-      <c r="H16" s="16" t="n"/>
+      <c r="H16" s="17" t="n"/>
       <c r="I16" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
@@ -2421,35 +2579,111 @@
       </c>
     </row>
     <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ПР (общ)</t>
         </is>
       </c>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="10" t="n">
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="17" t="n"/>
+      <c r="I17" s="3" t="n">
         <v>403</v>
       </c>
-      <c r="J17" s="10" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Ильиных Н.И.</t>
         </is>
       </c>
     </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="10" t="n">
+        <v>317</v>
+      </c>
+      <c r="J18" s="10" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D19" s="17" t="n"/>
+      <c r="I19" s="16" t="n"/>
+      <c r="J19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J20" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2468,7 +2702,11 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A5:A8"/>
@@ -2484,7 +2722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2559,17 +2797,17 @@
           <t>ПН</t>
         </is>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="16" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
     </row>
     <row r="3" ht="34" customHeight="1">
       <c r="A3" s="7" t="n"/>
@@ -2587,7 +2825,7 @@
         </is>
       </c>
       <c r="E3" s="6" t="n"/>
-      <c r="F3" s="16" t="n"/>
+      <c r="F3" s="17" t="n"/>
       <c r="H3" s="3" t="n">
         <v>208</v>
       </c>
@@ -2657,31 +2895,31 @@
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="16" t="n"/>
-      <c r="H6" s="17" t="n"/>
-      <c r="I6" s="17" t="n"/>
+      <c r="D6" s="17" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="7" t="n"/>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="16" t="n"/>
-      <c r="H7" s="17" t="n"/>
-      <c r="I7" s="17" t="n"/>
+      <c r="D7" s="17" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
     </row>
     <row r="8" ht="34" customHeight="1">
       <c r="A8" s="7" t="n"/>
@@ -2823,7 +3061,7 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Дискретная математика: ПР (общ)</t>
@@ -2850,7 +3088,7 @@
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
+      <c r="D13" s="17" t="n"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Основы построения инфокоммуникационных систем и сетей: ПР (общ)</t>
@@ -2885,7 +3123,7 @@
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
+      <c r="D14" s="17" t="n"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
@@ -2953,7 +3191,7 @@
         </is>
       </c>
       <c r="E16" s="6" t="n"/>
-      <c r="F16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
       <c r="H16" s="3" t="n">
         <v>412</v>
       </c>
@@ -2979,7 +3217,7 @@
         </is>
       </c>
       <c r="E17" s="6" t="n"/>
-      <c r="F17" s="16" t="n"/>
+      <c r="F17" s="17" t="n"/>
       <c r="H17" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
@@ -2992,38 +3230,112 @@
       </c>
     </row>
     <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="10" t="n">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ПР (общ)</t>
         </is>
       </c>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="14" t="n"/>
-      <c r="G18" s="13" t="inlineStr">
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ДИФ (общ)</t>
         </is>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H18" s="3" t="n">
         <v>403</v>
       </c>
-      <c r="I18" s="10" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>Ильиных Н.И.</t>
         </is>
       </c>
     </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="10" t="n">
+        <v>317</v>
+      </c>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
+    </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3044,7 +3356,11 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A9"/>
